--- a/Documents/Deliverable drafts_&_templates/Deliverable 2/SixGuys_Deliverable_2_ProductBackLog_3.xlsx
+++ b/Documents/Deliverable drafts_&_templates/Deliverable 2/SixGuys_Deliverable_2_ProductBackLog_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Project-Burger\Documents\Deliverable drafts_&amp;_templates\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6597DDEA-2445-4718-9D19-8FCBE931FD0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6D1767-CB71-42B5-91DB-E00AC88973DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1020" windowWidth="21900" windowHeight="15180" xr2:uid="{BB07E46C-EBB9-4E59-B503-407F69F25581}"/>
+    <workbookView xWindow="4800" yWindow="1140" windowWidth="21900" windowHeight="15180" xr2:uid="{BB07E46C-EBB9-4E59-B503-407F69F25581}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -614,6 +614,26 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -625,26 +645,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -676,14 +676,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8479C2CE-F365-4119-A226-F6FAFAD8A4CF}" name="Table4" displayName="Table4" ref="A1:F35" totalsRowShown="0" headerRowDxfId="6" headerRowCellStyle="Input">
-  <autoFilter ref="A1:F35" xr:uid="{B185C55B-4D64-49B0-805A-90960E16F066}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
-    <sortCondition ref="C2:C34" customList="H,M,L"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8479C2CE-F365-4119-A226-F6FAFAD8A4CF}" name="Table4" displayName="Table4" ref="A1:F34" totalsRowShown="0" headerRowDxfId="6" headerRowCellStyle="Input">
+  <autoFilter ref="A1:F34" xr:uid="{B185C55B-4D64-49B0-805A-90960E16F066}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F33">
+    <sortCondition ref="C2:C33" customList="H,M,L"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1FDADD91-D621-4F44-B591-C349E89B10F7}" name="Sprint Number" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{F07D2BD0-D352-48DB-BF4F-9202E12625B1}" name="ID" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{1FDADD91-D621-4F44-B591-C349E89B10F7}" name="Sprint Number" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F07D2BD0-D352-48DB-BF4F-9202E12625B1}" name="ID" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{4187F81A-8072-4929-8F3E-AE2C49BCCB7A}" name="Story Priority" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{745801D7-6926-4CC7-AB96-9E52607BBB36}" name="Story Status" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{E9675B24-95C0-49EA-90BD-B361E90F2CBE}" name="Story Points" dataDxfId="1"/>
@@ -990,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5E4C9C-67CA-4794-82AA-DDD7FE2958B2}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1028,23 +1028,23 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="6">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -1053,19 +1053,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E3" s="6">
         <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>53</v>
@@ -1086,7 +1086,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -1094,8 +1094,8 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
+      <c r="B5" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>53</v>
@@ -1104,10 +1104,10 @@
         <v>23</v>
       </c>
       <c r="E5" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -1115,8 +1115,8 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>74</v>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>53</v>
@@ -1128,16 +1128,16 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>53</v>
@@ -1146,17 +1146,19 @@
         <v>23</v>
       </c>
       <c r="E7" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="17" t="s">
-        <v>60</v>
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>53</v>
@@ -1165,40 +1167,40 @@
         <v>23</v>
       </c>
       <c r="E8" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E9" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>53</v>
@@ -1207,38 +1209,36 @@
         <v>77</v>
       </c>
       <c r="E10" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>2</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6">
         <v>5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>54</v>
@@ -1250,14 +1250,14 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
+      <c r="B13" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>54</v>
@@ -1269,14 +1269,14 @@
         <v>5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>54</v>
@@ -1285,17 +1285,17 @@
         <v>27</v>
       </c>
       <c r="E14" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="17" t="s">
-        <v>76</v>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>54</v>
@@ -1304,17 +1304,17 @@
         <v>27</v>
       </c>
       <c r="E15" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>54</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>54</v>
@@ -1345,14 +1345,14 @@
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>54</v>
@@ -1361,17 +1361,17 @@
         <v>27</v>
       </c>
       <c r="E18" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>54</v>
@@ -1380,17 +1380,17 @@
         <v>27</v>
       </c>
       <c r="E19" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>54</v>
@@ -1399,17 +1399,17 @@
         <v>27</v>
       </c>
       <c r="E20" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>65</v>
+      <c r="B21" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>54</v>
@@ -1418,36 +1418,36 @@
         <v>27</v>
       </c>
       <c r="E21" s="6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>54</v>
+      <c r="B22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>29</v>
@@ -1456,74 +1456,73 @@
         <v>27</v>
       </c>
       <c r="E23" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E25" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="D26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="15">
         <v>2</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="3"/>
+      <c r="F26" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>29</v>
@@ -1532,16 +1531,16 @@
         <v>27</v>
       </c>
       <c r="E27" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="16" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>29</v>
@@ -1550,16 +1549,16 @@
         <v>27</v>
       </c>
       <c r="E28" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
-      <c r="B29" s="16" t="s">
-        <v>31</v>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>29</v>
@@ -1571,13 +1570,13 @@
         <v>1</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>29</v>
@@ -1589,13 +1588,13 @@
         <v>1</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="5" t="s">
-        <v>37</v>
+      <c r="B31" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>29</v>
@@ -1604,34 +1603,34 @@
         <v>27</v>
       </c>
       <c r="E31" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>29</v>
@@ -1640,45 +1639,27 @@
         <v>27</v>
       </c>
       <c r="E33" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="15">
-        <v>3</v>
-      </c>
-      <c r="F35" s="16" t="s">
         <v>11</v>
       </c>
     </row>
